--- a/biology/Botanique/Stinkwood/Stinkwood.xlsx
+++ b/biology/Botanique/Stinkwood/Stinkwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stinkwood est en anglais le nom vernaculaire donné à différentes essences forestières. Le nom, composé de stink (puant) et wood (bois), renseigne sur des bois ou des plantes avec une odeur désagréable, que l'on retrouve aussi derrière le nom vernaculaire en langue française « bois-puant » (ou bois puant). Quelques mentions sont aussi données pour Stinkholz, en allemand. Le nom scientifique inclut pour certaines essences le mot latin foetidus, fétide pour indiquer une odeur désagréable des fleurs ou du bois. 
 </t>
@@ -511,7 +523,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gyrocarpus americanus ; arbre pantropical de la famille des Hernandiacées
 Sideroxylon foetidissimum ; Floride, Sud du Mexique, Guatemala, Antilles</t>
@@ -542,7 +556,9 @@
           <t>Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anagyris foetida; Europe du Sud</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frangula caroliniana (Syn.: Rhamnus caroliniana); Sud des États-Unis
 Gallesia integrifolia (Syn.: Crateva gorarema ) (allemand Knoblauchbaum, Páo, Pau d'alho); Brésil au Pérou
@@ -612,7 +630,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Celtis mildbraedii (Natal white stinkwood, red-fruited white-stinkwood); originaire d'Afrique tropicale
 Foetidia clusioides ; originaire de la Réunion et de l'Ile Maurice
@@ -651,7 +671,9 @@
           <t>Asie et Australasie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Coprosma foetidissima ; Nouvelle-Zélande et s'étend au sud jusqu'aux îles Auckland
 Coprosma grandifolia ; Nouvelle-Zélande
